--- a/biology/Médecine/Debora_Green/Debora_Green.xlsx
+++ b/biology/Médecine/Debora_Green/Debora_Green.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Debora Green est une médecin et assassin américaine née le 28 février 1951 à Havana.
 </t>
@@ -513,18 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Enfance et formation
-Elle est née sous le nom de Debora Jones le 28 février 1951 à Havana, dans l’Illinois[1].
-Elle grandit avec ses parents Joan et Bob Jones et sa sœur aînée[1].
-Elle est lauréate d’une bourse du mérite national à l’école secondaire[1].
-Elle a fréquenté l’Université de l’Illinois à partir de l’automne 1969, a obtenu une majeure en chimie et a choisi de fréquenter l’école de médecine après l’obtention de son diplôme en 1972[1].
-Carrière
-Elle travaille à l’Hôpital juif en tant qu’urgentologue, mais elle a changé de spécialité lorsqu’elle n’était pas satisfaite de son travail[1].
-Famille
-À l’université, Debora sort avec Duane M.J. Green, un ingénieur et se marie avec lui en 1974 alors qu’elle étudiait à l’Université du Kansas. Ils vivent ensemble pendant quatre ans avant de se séparer[1].
-Elle se marie avec Michael Farrar le 26 mai 1979, le couple a déménagé dans l’Ohio. Le couple a eu trois enfants ensemble : Timothy, né le 20 janvier 1982 ; Kate, née deux ans plus tard et Kelly, née le 13 décembre 1988[1].
-Affaire criminelle
-Debora Green est reconnue coupable du meurtre de deux de ses enfants dans un incendie criminel à Prairie Village en 1995[2].
+          <t>Enfance et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est née sous le nom de Debora Jones le 28 février 1951 à Havana, dans l’Illinois.
+Elle grandit avec ses parents Joan et Bob Jones et sa sœur aînée.
+Elle est lauréate d’une bourse du mérite national à l’école secondaire.
+Elle a fréquenté l’Université de l’Illinois à partir de l’automne 1969, a obtenu une majeure en chimie et a choisi de fréquenter l’école de médecine après l’obtention de son diplôme en 1972.
 </t>
         </is>
       </c>
@@ -550,12 +560,126 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle travaille à l’Hôpital juif en tant qu’urgentologue, mais elle a changé de spécialité lorsqu’elle n’était pas satisfaite de son travail.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Debora_Green</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Debora_Green</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Famille</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">À l’université, Debora sort avec Duane M.J. Green, un ingénieur et se marie avec lui en 1974 alors qu’elle étudiait à l’Université du Kansas. Ils vivent ensemble pendant quatre ans avant de se séparer.
+Elle se marie avec Michael Farrar le 26 mai 1979, le couple a déménagé dans l’Ohio. Le couple a eu trois enfants ensemble : Timothy, né le 20 janvier 1982 ; Kate, née deux ans plus tard et Kelly, née le 13 décembre 1988.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Debora_Green</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Debora_Green</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Affaire criminelle</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debora Green est reconnue coupable du meurtre de deux de ses enfants dans un incendie criminel à Prairie Village en 1995.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Debora_Green</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Debora_Green</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Dans la culture populaire</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un film sur cette affaire réalisé par Shamim Sarif[3].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un film sur cette affaire réalisé par Shamim Sarif.
 </t>
         </is>
       </c>
